--- a/APM files/122881464/122881464 IMPORT 1 BMC Cloud Property.xlsx
+++ b/APM files/122881464/122881464 IMPORT 1 BMC Cloud Property.xlsx
@@ -1,40 +1,369 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122881464\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8000C17-73DC-4ACA-B9D8-2A7E0B195AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="13095" yWindow="4215" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="104">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel Business Model</t>
+  </si>
+  <si>
+    <t>Target Hotel Business Model</t>
+  </si>
+  <si>
+    <t>Target Rate Acquisition Type</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Rates Inclusive of Taxes</t>
+  </si>
+  <si>
+    <t>Rates Inclusive of Fees</t>
+  </si>
+  <si>
+    <t>Default Margin Percent</t>
+  </si>
+  <si>
+    <t>Target Business Model for Standalone</t>
+  </si>
+  <si>
+    <t>Target Business Model for Corporate</t>
+  </si>
+  <si>
+    <t>Target Business Model for Package</t>
+  </si>
+  <si>
+    <t>93233786</t>
+  </si>
+  <si>
+    <t>90838355</t>
+  </si>
+  <si>
+    <t>90838677</t>
+  </si>
+  <si>
+    <t>90838519</t>
+  </si>
+  <si>
+    <t>90854275</t>
+  </si>
+  <si>
+    <t>90854287</t>
+  </si>
+  <si>
+    <t>90854314</t>
+  </si>
+  <si>
+    <t>90854365</t>
+  </si>
+  <si>
+    <t>90906803</t>
+  </si>
+  <si>
+    <t>90906883</t>
+  </si>
+  <si>
+    <t>90906939</t>
+  </si>
+  <si>
+    <t>91070094</t>
+  </si>
+  <si>
+    <t>91070186</t>
+  </si>
+  <si>
+    <t>91070242</t>
+  </si>
+  <si>
+    <t>91070322</t>
+  </si>
+  <si>
+    <t>91109267</t>
+  </si>
+  <si>
+    <t>91109639</t>
+  </si>
+  <si>
+    <t>91110005</t>
+  </si>
+  <si>
+    <t>91110203</t>
+  </si>
+  <si>
+    <t>91110395</t>
+  </si>
+  <si>
+    <t>91175089</t>
+  </si>
+  <si>
+    <t>91433866</t>
+  </si>
+  <si>
+    <t>91434221</t>
+  </si>
+  <si>
+    <t>91434711</t>
+  </si>
+  <si>
+    <t>91436090</t>
+  </si>
+  <si>
+    <t>91436136</t>
+  </si>
+  <si>
+    <t>91730756</t>
+  </si>
+  <si>
+    <t>91735032</t>
+  </si>
+  <si>
+    <t>91735232</t>
+  </si>
+  <si>
+    <t>91744243</t>
+  </si>
+  <si>
+    <t>91744284</t>
+  </si>
+  <si>
+    <t>91744307</t>
+  </si>
+  <si>
+    <t>93061861</t>
+  </si>
+  <si>
+    <t>93061925</t>
+  </si>
+  <si>
+    <t>93061994</t>
+  </si>
+  <si>
+    <t>93062064</t>
+  </si>
+  <si>
+    <t>93062126</t>
+  </si>
+  <si>
+    <t>93062151</t>
+  </si>
+  <si>
+    <t>93233971</t>
+  </si>
+  <si>
+    <t>94801632</t>
+  </si>
+  <si>
+    <t>94801547</t>
+  </si>
+  <si>
+    <t>94801692</t>
+  </si>
+  <si>
+    <t>95206338</t>
+  </si>
+  <si>
+    <t>101003086</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>SellLAR</t>
+  </si>
+  <si>
+    <t>5332236</t>
+  </si>
+  <si>
+    <t>5242057</t>
+  </si>
+  <si>
+    <t>5242379</t>
+  </si>
+  <si>
+    <t>5242363</t>
+  </si>
+  <si>
+    <t>5242694</t>
+  </si>
+  <si>
+    <t>5243218</t>
+  </si>
+  <si>
+    <t>5242913</t>
+  </si>
+  <si>
+    <t>5242372</t>
+  </si>
+  <si>
+    <t>5242908</t>
+  </si>
+  <si>
+    <t>5242734</t>
+  </si>
+  <si>
+    <t>5243494</t>
+  </si>
+  <si>
+    <t>5245361</t>
+  </si>
+  <si>
+    <t>5245391</t>
+  </si>
+  <si>
+    <t>5245378</t>
+  </si>
+  <si>
+    <t>5245393</t>
+  </si>
+  <si>
+    <t>5245576</t>
+  </si>
+  <si>
+    <t>5245587</t>
+  </si>
+  <si>
+    <t>5245581</t>
+  </si>
+  <si>
+    <t>5245589</t>
+  </si>
+  <si>
+    <t>5245601</t>
+  </si>
+  <si>
+    <t>5249100</t>
+  </si>
+  <si>
+    <t>5250334</t>
+  </si>
+  <si>
+    <t>5250349</t>
+  </si>
+  <si>
+    <t>5250358</t>
+  </si>
+  <si>
+    <t>5250362</t>
+  </si>
+  <si>
+    <t>5250359</t>
+  </si>
+  <si>
+    <t>5254047</t>
+  </si>
+  <si>
+    <t>5255122</t>
+  </si>
+  <si>
+    <t>5255527</t>
+  </si>
+  <si>
+    <t>5255505</t>
+  </si>
+  <si>
+    <t>5255203</t>
+  </si>
+  <si>
+    <t>5255155</t>
+  </si>
+  <si>
+    <t>5274972</t>
+  </si>
+  <si>
+    <t>5274961</t>
+  </si>
+  <si>
+    <t>5274974</t>
+  </si>
+  <si>
+    <t>5274964</t>
+  </si>
+  <si>
+    <t>5274970</t>
+  </si>
+  <si>
+    <t>5274963</t>
+  </si>
+  <si>
+    <t>5343261</t>
+  </si>
+  <si>
+    <t>5311166</t>
+  </si>
+  <si>
+    <t>5311133</t>
+  </si>
+  <si>
+    <t>5307124</t>
+  </si>
+  <si>
+    <t>5328669</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +375,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,120 +700,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Business Model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Target Hotel Business Model</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Target Rate Acquisition Type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Vendor ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Oracle ID</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Rates Inclusive of Taxes</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Rates Inclusive of Fees</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions Charged for Taxes</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions Charged for Fees</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Commissions Charged for Cancellations</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Default Margin Percent</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Target Business Model for Standalone</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Target Business Model for Corporate</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Target Business Model for Package</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>123</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>122938140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>122938140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>122938140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>122938140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>122938140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>122938140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>122938140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>122938140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>122938140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>122938140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>122938140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>122938140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>122938140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>122938140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>122938140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>122938140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>122938140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>122938140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>122938140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>122938140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>122938140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>122938140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>122938140</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>122938140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>122938140</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>122938140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>122938140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>122938140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>122938140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>122938140</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>122938140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>122938140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>122938140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>122938140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>122938140</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>122938140</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>122938140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>122938140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>122938140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J40" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>122938140</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J41" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>122938140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>122938140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>122938140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>122938140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J45" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>122938140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>122938140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>102</v>
+      </c>
+      <c r="H47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I47">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>122938140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" t="s">
+        <v>56</v>
+      </c>
+      <c r="L48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>122938140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" t="s">
+        <v>56</v>
+      </c>
+      <c r="L49" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/APM files/122881464/122881464 IMPORT 1 BMC Cloud Property.xlsx
+++ b/APM files/122881464/122881464 IMPORT 1 BMC Cloud Property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\122881464\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8000C17-73DC-4ACA-B9D8-2A7E0B195AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3B8B8A-E327-433A-BA29-51BFF7EB5EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="4215" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="6060" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="105">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>5429557</t>
   </si>
 </sst>
 </file>
@@ -352,18 +355,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -393,12 +390,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +700,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2558,9 @@
       <c r="E49" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="2"/>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
       <c r="G49" t="s">
         <v>102</v>
       </c>
